--- a/Testdata/TC_44.xlsx
+++ b/Testdata/TC_44.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>URwAAB+LCAAAAAAAAAOlGdtuI0n1V1p+Agm7u+3MbBJVeuVbshZ2HNkOmewLKndX4ibtatNVncRviwRatCxCCM2i5SqeFiExjGBXWma4/Mtqkhme+AVOXfpqZycOo2jSdW516tS5VtC71/PAuCQR80O6V7FrVsUg1A09n57vVWJ+VrUfV951UPfaJcERjvCccCA2gIuy3Wvm71VmnC92TfPq6qp21aiF0blZtyzbfDLoj90ZmeOqTxnH1CWVlMt7O1fFQW1vPiAce5hjxblX6Y17tTbx3Q7ABpjicxLVWjHzKWGsS7nPfcIEZ0QwJ+3O4DvqYE699rhmI3MFnlG2Yj/wFF2BUsE1HWxLJv6cOHXL3q5a29WGPbF2dhv2bqNR26pvv58wpoSojxkfk+jSdyVgzPF8Idmt7YZt7TTsRgOZa4lAVmYABw0Db0QufUa8NgkCtpFFTH2BTZfDqTczpoXMHK8W9HAVDiK8mE18HpDN1BgNWsacal0yIQ7aDyPigv0epNIhuRpG2qyTRR+wk5kf8WUHLzeWdcxINFwII23G6qBOSHkzIBE/XsBdEw9cARAOj2KCzDuQGVPHZy58+zQmnnOGA5ZnKiDRSRhdsAV2ySHEsSlkXNEgxB44HPcZ912WCVjBoKMoXIBI2L0VBt4+iNUqrkGkonsUbCz2bYXhRVl6EYnktcoLhkudY56Qr8DReBZeDWmwHMdT5kb+lHidVkK9FodERGrudsx4OActMhBSsBxkCf8gAstg1CGuP8fBUQBWZA7EbhGAmjEPz3zeDoN4TlNzlqDoBE40IdfpCdM1GsLtUmH0kPZoScpaXJFjFF4ljrMKl0bIgZvMTZxsFVEm7gAsub5VjLwRccp9P4ACkb+LHLToFeMZIXytSygMErlwX5Qcp7U8jOdTiK8pBNml3JUhM8Mj8FNwdtDLsaCMVOXPxLJ25Q/okaJRl3p30yVIBNvl9nJswJVACM4UtAJMLwB64vPZYTM5yxoMUha4k34VhyB0FwFeSnBqpTwM9agbxB5RGaFHz6SLCt3Upd6JRiugPsS4gzBdTpYLSMzM3+XwsVeBUr3LeATNQMVxw5jyaClSBzI16dt4WDylcgMc3JvnLCLfj6EHWe7H1G2H3v1385R1jqnP769hGEcqH96fRVpPZMaYdYjIMTLr35vf3eRMLNqIfE7JPKS+e39rg5GF9t4DDsKSqMpxmHf4Voec4TiALodDMTrP6kwJjJrsokyTB6HjKEhShSN6SAZNpOvNay6UWdEo1dxwLgAm9G4nY2Tm6UWv4JIuPe9jeh5DNU4DsAxPE5UoJJMIUyaOkxbfUs5aT4SSgFZNgaOifBhLi6koDwGLzBIdmpD5IoxwMADD+Pv6fnRnAUV7gPlMr6AGBMRNjGxmrClXUbNE8beRyWyujiEiQ+eTElASibOodjWjyWBInHIA/hu0ceBPI5V+kpq3DgcXlrVRSaISh9uwpUruAEYWKFPfJkvRx2YLDZcuaycI5cAi4zjj0dZ2/ZHVqEMLINZInnhEcGB0wes5MXr0kjA+B7ZdY0SY78GXj4Nd4z0yJT5UC2kina835s7zof0kIUpVmqBvEVIkgMJ87kO+XSVMMRmDc0pwFCxzhOqo/dAFutsf//vmN89fvfjs9qOnb7744X//8atX//zZzbMfwcftX/928/Ev1TEVMZrgaUCkQpPW9rbV2AI/S0FIGNeUPaQXu1zCTk9l65iukR6B5KLd7bUP+i2ZT1Jgwq5yrymmq2UYZ8uxOoTcSF6pmXiCInEmSX7S6wI2l8sdMe1ckiJ1Hn8Xo7LF65efvX755zu5tcGypsTe2XlUtetv7VlgbrRX6NKeRUyRakhIZtStqvWoWq/niEs0aASjNswEqZ16niPGUqvesOw0l3upI68jKqO0pAk+N0t8CtRWfUTqAvl1gpSOP4EQSdEqFHIL7aJf/OTNX54WqLR1NaQoBZST9V5sZiYLKfpwNDHGw+NRu2tMumPhJxkuR6eEfw2x3j2Np4JTURrj4FsGoeJ5xajA6FAxwjODYHdmLCESc3FYcLZ1ULXRA0WWtTyIwnihbiTHkEHXUKbZZC3HmlwjcdKeK0knQ60hV7re/P3zdQz6IJ2s80tfCvIwVMAoUA6vo/bTf7368sNXL17cPv/5zZc/KEjQ+6QDNPg5RFN+mbo9pDxdb0oQdDKWxrywvpurLxooJo6j0KecOfZjOWzoFQJWW0iTv1FvDiVPCpb2AngJgt7DrHvNdWA7h8gsAkDPBYZqG2ZDWgpQOTyz639++7vbX39++8nzNx/+6eajP958/Mnrl79/8+wPKupunz6//ekzneXLhUDqIkY/1QQa8iHBNUQ0GqJ2G1998AuDhtyAlsOIZUb66oNPc8KEorI5ySRDS5cqUlRhhTTPLPiMnCqpDgW+lEU1AG1RwhophS5i4cJ3s03erwpRIu4k4hu9STVmxAihm/omnKRInDHfl0+zqJJ69I5Vt+saq7QRR5hiljP9QRBOoclIEHJSL5EUuL6eIaOV+x30h61mPyNRSgwjDwZ7Szw3iA+UtJSipPRYskpcLQcBLDR+bhyIx5UVslVUKjmXxkz9SnHW9ET6Wz/TFyhQO44i1RBR/eo9jhfQDCdvWXfj5QNfrv89VL1qviPO1r1OEQ/rHBYKYREtABIvU5NGqTTVY+JBRLWzh8I02RJwhUdBMId+2Fad1iX0lZEp8k43isJobfLJMAnZADppyChmZvGURt6p6rq97K4SQJLw0g81+ekThh0SEL7Zq6+ZcQ/Cywfzwt1vytpjw8DTxtxs9EjNkgnIP30LR/l/X76VszWjCBor8VK28VN1MriOYN7dUBt1FMkoJkDYXb8l7/sR409EJtBfCnKaQk5Vh/rEqduqD32iAKeOXgOBmZduFtRMQperP0CEQd+f+xuOhVYS30UhYMvFQrVwvc08RZSWQ3INDWZOAiTF6fegbKiXk02kKYeFXJryi0c+5p/P+KaKvTPFxCNTq+pOSb265Vnb1R1CGlXbhv+xW69b1iPxRKiFQ+bwydWGm5jJhWV/GHT+B/hyxGpRHAAA</t>
+          <t>Sh4AAB+LCAAAAAAAAAOlGVlvG8f5ryz41AKl9qAkS8J4A/GQQ5Q6INK1lZdiuDuUplrOsjuzkviWAi1SpCmKonCK9ESfUhSoa7QJkNo9/ktgKe5T/0K/OfYiqVirGgK8813zzTffOUTvXE0j64IknMbsYcNdcxoWYUEcUnb6sJGKSdPdbLzjo95VQKIjnOApEUBsARfjO1ecPmycCTHbse3Ly8u1y9ZanJzanuO49tP9wTA4I1PcpIwLzALSyLnCt3M1fNQJp/tE4BALrDkfNvrD/lqH0KALsH3M8ClJ1topp4xw3mOCCkq45EwIFqTT3f+OPpjvrW2uuchegheU7ZRGoaarUGq4oYNtyYhOie85ntN0tpre+sh1dhxvZ31zbbPVei9jzAnRAHMxJMkFDRRgKPB0ptidLW/ddRxvfRPZK4lAVmEAHx1G4TG5oJyEHRJFvJZFbHOBu4GAU9czpoPsEq8RdH8VHiV4djaiIiJ12ffihARgqHvtfUAuDxNjv9FsANjRGU3EvIvntWU95iQ5nElr1GP1UTdmYjciiXg8g0slIdw5IHyRpATZtyALpi7lAXxTlpLQn+CIl5kqSPQkTs75DAfkAALWljIuWRTjEDxLUC5owAsBSxh0lMQzEAm7t+Mo3AOxRsUViFx0n4GN5b7tOD5flF5FIuUEyh3gUqdYZORLcDQ8iy8PWTQfpmMeJHRMwm47o16JQzL0DHcn5SKeghYFCGlYCTKHfxBqi2DUJQGd4ugoAityvwVSKgC0m4p4QkUnjtIpy825AEVP4EQjcpWfMF+jQ7hdJo0esz5bkLISV+U4ji8zx1mGKyOUwLs8yJxsGbFI3AVYdn3LGHUj8pR7NIJKUL6LErTqFcMzQsRKl9AYJJPenqwtfnt+kE7HEF9jCLILtStHdoFH4Kfg7KCX70C9aKq/kQM5WP6BHjka9Vh4O12GRLBdaS/fBdwCCMGZonaE2TlAn1BxdrCbnWUFBmkL3Eq/jEMQurMIzxU4t1IZhvosiNKQ6IzQZxPlolI3fam3otESaAAx7iPM5qP5DDIwpzsCPh42oCbvcJFA1W/4QZwykcxl6kC2IX0bD0/HTG2AozvzTBLy/RSajfleyoJOHN59t1Bb5zGj4u4axmmi8+HdWZT1ZGZMeZfIHKOy/p35gzpn4kkt8ikj05jR4O7WBiNL7cN7HIRnUVXisG/xrS6Z4DSCdkZAMTot6swCGO3y80WaMgg9TqIsVfiyWeTQLQbhdC2AMis7orUgnkqADU3akyGyy/SyVwhIj50OMDtNoRrnAbgIzxOVLCSjBDMuj5MX34WctZoIZQGtmwJfR/lhqiymozwGLLIX6NCITGdxgqN9MAzdM/djOgso2vtYnJkV1ICIBJmR7YI156pqlin+NjKVzfUxZGSYfLIAVETyLLovLWgKGJKn3Af/jTo4ouNEp5+s5q3CwYUVbVSWqOTharZU2R3AbAJl6ttkLhvWYmHgymXdDKEdWGYcf3i8vuVtOC0PWgC5RurExwRHVg+8XhCrzy4IF1Ng27GOCachfFEc7VjvkjGhUC2UiUy+rs1d5kN7WUJUquyCvlVIlQAK8ymFfLtMmGMKBv+E4CSalwj1UQdxAHQ3P/739W9evH756c2Hz958/sP//uNXr//5s+vnP4KPm7/+7fqjX+pjamI0wuOIKIVG7a0tp7UOfpaDkDSurXrIMA2Egp2cqNYxXyMz66hFp9fvPBq0VT7JgRm7zr22HKPmcVosh/oQaiN1pXbmCZrEH2X5yawr2FIu9+VYc0Gq1GX8bYzaFl+9+vSrV3++ldsYrGhK3O3tjabrvbVn8RzXXaLLexY5LuohwQyj7nrT2Wh6Xol4gQYdw0wNM0Fup37ot1xn2/Fajpvn8jB35FVEiygjaYRP7QU+DeroPiJ3gfI6QyrHH0GI5GgdCqWFcdHPf/LmL88qVMa6BlKVAsqpei83s7OFEn1wPLKGh4+POz1r1BtKPylwJTot/GuIze55PFWcirEUR9+yCJPvKFYDRoeGFU8sgoMzaw6RWIrDirOtguqN7ilyUctHSZzO9I2UGAroCso8m6zkWJFrFE7ZcynpFKgV5FrX679/torBHKRbdH7+8X7bmrLcLxUMVTAaVMKbqP3kX6+/+OD1y5c3L35+/cUPKhLMPvkADX4O0VRe5m4PKc/UmwUIejJUxjx3vluqLwYoJ46jmDLBfXdTDRtmhYDVldLU/6g/hZKnBCt7AXwBgt7FvHclTGD7B8iuAkDPGYZqGxdDWg7QObyw639++7ubX3928/GLNx/86frDP15/9PFXr37/5vkfdNTdPHtx89PnJssvFgKlixz9dBNoqYeEwJLRaMnabX35/i8sFgsLWg4rVRnpy/c/KQmTiqrmpJAMLV2uSFWFJdIys+SzSqrkOlT4chbdAHRkCWvlFKaIxTMaFJu815SiZNwpxDf6o2bKiRVDN/VNOEmVuGC+K59h0SX16IHjuZ7Bam3kEcaYl0z/KIrH0GRkCDWpL5BUuL6eoaBV+z0aHLZ3BwWJVuIwCWGwd+Rzg/xAfZ41lZl7lSCAhWYvSCP5oLJEtoxC2VcpddnmZWKyG8qUt3qOr1CgTpokugli5kl7mM6gAc7er27Hq0e9Us97oPvTchdcrPvdKh7WJSwUvypaAhRepSOD0qmpz+UjiG5hD6RpiiXgKg+BYA7zaq27qwvoJRNb5ppeksTJyoRTYDKyfeieIYvYhcVzGltuqTvtsLirDJAlufxDT3vmhHGXRETUftLNuPfji3vzwt3XZe3zwyg0xqw3buRmKQSU37Wlo9RVZjdJoG2S72C1H6IHlJ33653e39hyvW0ndLbHDwg4Cn7gYS+YeOvOhtvakAVJC5XTpxQhJxc5u9XbBJrFKnsxZx/D5F1TmjawYpSzKFhKBaRJ7Pka7dGEi6cyRZkvDTnJISe6dX7qe65ukJ9qwIlv1kBglzezK1pn+UXon0DiaECntOa86mRJqCoE3GA2071l3QuFmndArqDzLUmAbD3+HtQz/aRTR5qOKkjyOX8ma5iOa4uzM+YjwEvHuh93L4S+7P7c6vcEGv0fCqjO674i+ozT0zNR91697e0W2SRe05sEQXMdFk2oxuNmiCfbruNMWuGGJ59+jXCoDpRc1txE1hTKYa6oz2cv/CLs/w8pygNYSh4AAA==</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -459,7 +459,7 @@
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
@@ -578,4 +578,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>2</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>2</EndRow>
+          <EndCol>22</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2EED9F0-364E-4539-A5CB-AC115656A454}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_44.xlsx
+++ b/Testdata/TC_44.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Sh4AAB+LCAAAAAAAAAOlGVlvG8f5ryz41AKl9qAkS8J4A/GQQ5Q6INK1lZdiuDuUplrOsjuzkviWAi1SpCmKonCK9ESfUhSoa7QJkNo9/ktgKe5T/0K/OfYiqVirGgK8813zzTffOUTvXE0j64IknMbsYcNdcxoWYUEcUnb6sJGKSdPdbLzjo95VQKIjnOApEUBsARfjO1ecPmycCTHbse3Ly8u1y9ZanJzanuO49tP9wTA4I1PcpIwLzALSyLnCt3M1fNQJp/tE4BALrDkfNvrD/lqH0KALsH3M8ClJ1topp4xw3mOCCkq45EwIFqTT3f+OPpjvrW2uuchegheU7ZRGoaarUGq4oYNtyYhOie85ntN0tpre+sh1dhxvZ31zbbPVei9jzAnRAHMxJMkFDRRgKPB0ptidLW/ddRxvfRPZK4lAVmEAHx1G4TG5oJyEHRJFvJZFbHOBu4GAU9czpoPsEq8RdH8VHiV4djaiIiJ12ffihARgqHvtfUAuDxNjv9FsANjRGU3EvIvntWU95iQ5nElr1GP1UTdmYjciiXg8g0slIdw5IHyRpATZtyALpi7lAXxTlpLQn+CIl5kqSPQkTs75DAfkAALWljIuWRTjEDxLUC5owAsBSxh0lMQzEAm7t+Mo3AOxRsUViFx0n4GN5b7tOD5flF5FIuUEyh3gUqdYZORLcDQ8iy8PWTQfpmMeJHRMwm47o16JQzL0DHcn5SKeghYFCGlYCTKHfxBqi2DUJQGd4ugoAityvwVSKgC0m4p4QkUnjtIpy825AEVP4EQjcpWfMF+jQ7hdJo0esz5bkLISV+U4ji8zx1mGKyOUwLs8yJxsGbFI3AVYdn3LGHUj8pR7NIJKUL6LErTqFcMzQsRKl9AYJJPenqwtfnt+kE7HEF9jCLILtStHdoFH4Kfg7KCX70C9aKq/kQM5WP6BHjka9Vh4O12GRLBdaS/fBdwCCMGZonaE2TlAn1BxdrCbnWUFBmkL3Eq/jEMQurMIzxU4t1IZhvosiNKQ6IzQZxPlolI3fam3otESaAAx7iPM5qP5DDIwpzsCPh42oCbvcJFA1W/4QZwykcxl6kC2IX0bD0/HTG2AozvzTBLy/RSajfleyoJOHN59t1Bb5zGj4u4axmmi8+HdWZT1ZGZMeZfIHKOy/p35gzpn4kkt8ikj05jR4O7WBiNL7cN7HIRnUVXisG/xrS6Z4DSCdkZAMTot6swCGO3y80WaMgg9TqIsVfiyWeTQLQbhdC2AMis7orUgnkqADU3akyGyy/SyVwhIj50OMDtNoRrnAbgIzxOVLCSjBDMuj5MX34WctZoIZQGtmwJfR/lhqiymozwGLLIX6NCITGdxgqN9MAzdM/djOgso2vtYnJkV1ICIBJmR7YI156pqlin+NjKVzfUxZGSYfLIAVETyLLovLWgKGJKn3Af/jTo4ouNEp5+s5q3CwYUVbVSWqOTharZU2R3AbAJl6ttkLhvWYmHgymXdDKEdWGYcf3i8vuVtOC0PWgC5RurExwRHVg+8XhCrzy4IF1Ng27GOCachfFEc7VjvkjGhUC2UiUy+rs1d5kN7WUJUquyCvlVIlQAK8ymFfLtMmGMKBv+E4CSalwj1UQdxAHQ3P/739W9evH756c2Hz958/sP//uNXr//5s+vnP4KPm7/+7fqjX+pjamI0wuOIKIVG7a0tp7UOfpaDkDSurXrIMA2Egp2cqNYxXyMz66hFp9fvPBq0VT7JgRm7zr22HKPmcVosh/oQaiN1pXbmCZrEH2X5yawr2FIu9+VYc0Gq1GX8bYzaFl+9+vSrV3++ldsYrGhK3O3tjabrvbVn8RzXXaLLexY5LuohwQyj7nrT2Wh6Xol4gQYdw0wNM0Fup37ot1xn2/Fajpvn8jB35FVEiygjaYRP7QU+DeroPiJ3gfI6QyrHH0GI5GgdCqWFcdHPf/LmL88qVMa6BlKVAsqpei83s7OFEn1wPLKGh4+POz1r1BtKPylwJTot/GuIze55PFWcirEUR9+yCJPvKFYDRoeGFU8sgoMzaw6RWIrDirOtguqN7ilyUctHSZzO9I2UGAroCso8m6zkWJFrFE7ZcynpFKgV5FrX679/torBHKRbdH7+8X7bmrLcLxUMVTAaVMKbqP3kX6+/+OD1y5c3L35+/cUPKhLMPvkADX4O0VRe5m4PKc/UmwUIejJUxjx3vluqLwYoJ46jmDLBfXdTDRtmhYDVldLU/6g/hZKnBCt7AXwBgt7FvHclTGD7B8iuAkDPGYZqGxdDWg7QObyw639++7ubX3928/GLNx/86frDP15/9PFXr37/5vkfdNTdPHtx89PnJssvFgKlixz9dBNoqYeEwJLRaMnabX35/i8sFgsLWg4rVRnpy/c/KQmTiqrmpJAMLV2uSFWFJdIys+SzSqrkOlT4chbdAHRkCWvlFKaIxTMaFJu815SiZNwpxDf6o2bKiRVDN/VNOEmVuGC+K59h0SX16IHjuZ7Bam3kEcaYl0z/KIrH0GRkCDWpL5BUuL6eoaBV+z0aHLZ3BwWJVuIwCWGwd+Rzg/xAfZ41lZl7lSCAhWYvSCP5oLJEtoxC2VcpddnmZWKyG8qUt3qOr1CgTpokugli5kl7mM6gAc7er27Hq0e9Us97oPvTchdcrPvdKh7WJSwUvypaAhRepSOD0qmpz+UjiG5hD6RpiiXgKg+BYA7zaq27qwvoJRNb5ppeksTJyoRTYDKyfeieIYvYhcVzGltuqTvtsLirDJAlufxDT3vmhHGXRETUftLNuPfji3vzwt3XZe3zwyg0xqw3buRmKQSU37Wlo9RVZjdJoG2S72C1H6IHlJ33653e39hyvW0ndLbHDwg4Cn7gYS+YeOvOhtvakAVJC5XTpxQhJxc5u9XbBJrFKnsxZx/D5F1TmjawYpSzKFhKBaRJ7Pka7dGEi6cyRZkvDTnJISe6dX7qe65ukJ9qwIlv1kBglzezK1pn+UXon0DiaECntOa86mRJqCoE3GA2071l3QuFmndArqDzLUmAbD3+HtQz/aRTR5qOKkjyOX8ma5iOa4uzM+YjwEvHuh93L4S+7P7c6vcEGv0fCqjO674i+ozT0zNR91697e0W2SRe05sEQXMdFk2oxuNmiCfbruNMWuGGJ59+jXCoDpRc1txE1hTKYa6oz2cv/CLs/w8pygNYSh4AAA==</t>
+          <t>URwAAB+LCAAAAAAAAAOlGdtuI0n1V1p+Agm7u+3MbBJVeuVbshZ2HNkOmewLKndX4ibtatNVncRviwRatCxCCM2i5SqeFiExjGBXWma4/Mtqkhme+AVOXfpqZycOo2jSdW516tS5VtC71/PAuCQR80O6V7FrVsUg1A09n57vVWJ+VrUfV951UPfaJcERjvCccCA2gIuy3Wvm71VmnC92TfPq6qp21aiF0blZtyzbfDLoj90ZmeOqTxnH1CWVlMt7O1fFQW1vPiAce5hjxblX6Y17tTbx3Q7ABpjicxLVWjHzKWGsS7nPfcIEZ0QwJ+3O4DvqYE699rhmI3MFnlG2Yj/wFF2BUsE1HWxLJv6cOHXL3q5a29WGPbF2dhv2bqNR26pvv58wpoSojxkfk+jSdyVgzPF8Idmt7YZt7TTsRgOZa4lAVmYABw0Db0QufUa8NgkCtpFFTH2BTZfDqTczpoXMHK8W9HAVDiK8mE18HpDN1BgNWsacal0yIQ7aDyPigv0epNIhuRpG2qyTRR+wk5kf8WUHLzeWdcxINFwII23G6qBOSHkzIBE/XsBdEw9cARAOj2KCzDuQGVPHZy58+zQmnnOGA5ZnKiDRSRhdsAV2ySHEsSlkXNEgxB44HPcZ912WCVjBoKMoXIBI2L0VBt4+iNUqrkGkonsUbCz2bYXhRVl6EYnktcoLhkudY56Qr8DReBZeDWmwHMdT5kb+lHidVkK9FodERGrudsx4OActMhBSsBxkCf8gAstg1CGuP8fBUQBWZA7EbhGAmjEPz3zeDoN4TlNzlqDoBE40IdfpCdM1GsLtUmH0kPZoScpaXJFjFF4ljrMKl0bIgZvMTZxsFVEm7gAsub5VjLwRccp9P4ACkb+LHLToFeMZIXytSygMErlwX5Qcp7U8jOdTiK8pBNml3JUhM8Mj8FNwdtDLsaCMVOXPxLJ25Q/okaJRl3p30yVIBNvl9nJswJVACM4UtAJMLwB64vPZYTM5yxoMUha4k34VhyB0FwFeSnBqpTwM9agbxB5RGaFHz6SLCt3Upd6JRiugPsS4gzBdTpYLSMzM3+XwsVeBUr3LeATNQMVxw5jyaClSBzI16dt4WDylcgMc3JvnLCLfj6EHWe7H1G2H3v1385R1jqnP769hGEcqH96fRVpPZMaYdYjIMTLr35vf3eRMLNqIfE7JPKS+e39rg5GF9t4DDsKSqMpxmHf4Voec4TiALodDMTrP6kwJjJrsokyTB6HjKEhShSN6SAZNpOvNay6UWdEo1dxwLgAm9G4nY2Tm6UWv4JIuPe9jeh5DNU4DsAxPE5UoJJMIUyaOkxbfUs5aT4SSgFZNgaOifBhLi6koDwGLzBIdmpD5IoxwMADD+Pv6fnRnAUV7gPlMr6AGBMRNjGxmrClXUbNE8beRyWyujiEiQ+eTElASibOodjWjyWBInHIA/hu0ceBPI5V+kpq3DgcXlrVRSaISh9uwpUruAEYWKFPfJkvRx2YLDZcuaycI5cAi4zjj0dZ2/ZHVqEMLINZInnhEcGB0wes5MXr0kjA+B7ZdY0SY78GXj4Nd4z0yJT5UC2kina835s7zof0kIUpVmqBvEVIkgMJ87kO+XSVMMRmDc0pwFCxzhOqo/dAFutsf//vmN89fvfjs9qOnb7744X//8atX//zZzbMfwcftX/928/Ev1TEVMZrgaUCkQpPW9rbV2AI/S0FIGNeUPaQXu1zCTk9l65iukR6B5KLd7bUP+i2ZT1Jgwq5yrymmq2UYZ8uxOoTcSF6pmXiCInEmSX7S6wI2l8sdMe1ckiJ1Hn8Xo7LF65efvX755zu5tcGypsTe2XlUtetv7VlgbrRX6NKeRUyRakhIZtStqvWoWq/niEs0aASjNswEqZ16niPGUqvesOw0l3upI68jKqO0pAk+N0t8CtRWfUTqAvl1gpSOP4EQSdEqFHIL7aJf/OTNX54WqLR1NaQoBZST9V5sZiYLKfpwNDHGw+NRu2tMumPhJxkuR6eEfw2x3j2Np4JTURrj4FsGoeJ5xajA6FAxwjODYHdmLCESc3FYcLZ1ULXRA0WWtTyIwnihbiTHkEHXUKbZZC3HmlwjcdKeK0knQ60hV7re/P3zdQz6IJ2s80tfCvIwVMAoUA6vo/bTf7368sNXL17cPv/5zZc/KEjQ+6QDNPg5RFN+mbo9pDxdb0oQdDKWxrywvpurLxooJo6j0KecOfZjOWzoFQJWW0iTv1FvDiVPCpb2AngJgt7DrHvNdWA7h8gsAkDPBYZqG2ZDWgpQOTyz639++7vbX39++8nzNx/+6eajP958/Mnrl79/8+wPKupunz6//ekzneXLhUDqIkY/1QQa8iHBNUQ0GqJ2G1998AuDhtyAlsOIZUb66oNPc8KEorI5ySRDS5cqUlRhhTTPLPiMnCqpDgW+lEU1AG1RwhophS5i4cJ3s03erwpRIu4k4hu9STVmxAihm/omnKRInDHfl0+zqJJ69I5Vt+saq7QRR5hiljP9QRBOoclIEHJSL5EUuL6eIaOV+x30h61mPyNRSgwjDwZ7Szw3iA+UtJSipPRYskpcLQcBLDR+bhyIx5UVslVUKjmXxkz9SnHW9ET6Wz/TFyhQO44i1RBR/eo9jhfQDCdvWXfj5QNfrv89VL1qviPO1r1OEQ/rHBYKYREtABIvU5NGqTTVY+JBRLWzh8I02RJwhUdBMId+2Fad1iX0lZEp8k43isJobfLJMAnZADppyChmZvGURt6p6rq97K4SQJLw0g81+ekThh0SEL7Zq6+ZcQ/Cywfzwt1vytpjw8DTxtxs9EjNkgnIP30LR/l/X76VszWjCBor8VK28VN1MriOYN7dUBt1FMkoJkDYXb8l7/sR409EJtBfCnKaQk5Vh/rEqduqD32iAKeOXgOBmZduFtRMQperP0CEQd+f+xuOhVYS30UhYMvFQrVwvc08RZSWQ3INDWZOAiTF6fegbKiXk02kKYeFXJryi0c+5p/P+KaKvTPFxCNTq+pOSb265Vnb1R1CGlXbhv+xW69b1iPxRKiFQ+bwydWGm5jJhWV/GHT+B/hyxGpRHAAA</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -459,7 +459,7 @@
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
@@ -578,37 +578,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>2</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>2</EndRow>
-          <EndCol>22</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2EED9F0-364E-4539-A5CB-AC115656A454}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>